--- a/lingres_xy.xlsx
+++ b/lingres_xy.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PSPPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9ADCF8-51CC-40C5-AC71-FFC973563D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5562C-E0A1-4FAD-BD96-6D2003FA21E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -374,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,6 +471,16 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>SUM(A1:A10)</f>
+        <v>144</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B1:B10)</f>
+        <v>11200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/lingres_xy.xlsx
+++ b/lingres_xy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\PSPPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B5562C-E0A1-4FAD-BD96-6D2003FA21E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F654573-037D-40A5-959F-CF492AAAB89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,16 +471,6 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f>SUM(A1:A10)</f>
-        <v>144</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B1:B10)</f>
-        <v>11200</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
